--- a/unpackers/output/output.xlsx
+++ b/unpackers/output/output.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Blood Pressure</t>
+          <t>BloodPressure</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/unpackers/output/output.xlsx
+++ b/unpackers/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Emily White</t>
+          <t>Sarah Adams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>David Lee</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100 bpm</t>
+          <t>110 bpm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -510,59 +510,410 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9 hours</t>
+          <t>6.5 hours</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sarah Adams</t>
+          <t>Emily White</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-11</t>
+          <t>09/09/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>72 bpm</t>
+          <t>90 bpm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>120/80 mmHg</t>
+          <t>130/90 mmHg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7 hours</t>
+          <t>5 hours</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Michael Brown</t>
+          <t>David Lee</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>60 bpm</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120/75 mmHg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6.5 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Emma Taylor</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>05/11/2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>75 bpm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>115/95 mmHg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Oliver Smith</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>03/09/2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>120 bpm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>150/95 mmHg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.5 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sophia Miller</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80 bpm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>110/55 mmHg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sophia Wilson</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>72 bpm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>125/80 mmHg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Liam Brown</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>82 bpm</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>130/75 mmHg</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.5 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Olivia Taylor</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>62 bpm</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>140/85 mmHg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.5 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Noah Davis</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>122 bpm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>70/45 mmHg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ella Brown</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>67 bpm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>90/60 mmHg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Charlotte Anderson</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>87 bpm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>135/75 mmHg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ella Johnson</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96 bpm</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>140/70 mmHg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>William Miller</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>86 bpm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120/85 mmHg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Scarlett Smith</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>100 bpm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>130/65 mmHg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>James Lee</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>125 bpm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>160/95 mmHg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>5.5 hours</t>
         </is>
